--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +423,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>108/ANSYSFYSN01</v>
+        <v>123/TEST PV</v>
       </c>
       <c r="B2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="C2" t="str">
         <v>aq5146</v>
@@ -443,64 +443,64 @@
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2" t="str">
-        <v>--</v>
+      <c r="H2">
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>60000</v>
-      </c>
-      <c r="J2" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>51000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>001/LF/TEST DR</v>
+        <v>108/ANSYSFYSN01</v>
       </c>
       <c r="B3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C3" t="str">
-        <v>545444</v>
+        <v>aq5146</v>
       </c>
       <c r="D3" t="str">
-        <v>Ali expresse</v>
+        <v>Mohamed Amine</v>
       </c>
       <c r="E3" t="str">
-        <v>oui</v>
+        <v>non</v>
       </c>
       <c r="F3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>10000</v>
+        <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <v>--</v>
       </c>
       <c r="I3">
-        <v>10000</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>60000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>--</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="str">
-        <v>--</v>
+        <v>9000</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
       </c>
       <c r="M3">
-        <v>10000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>Logement de fonction</v>
       </c>
       <c r="C4" t="str">
-        <v>q666465</v>
+        <v>545444</v>
       </c>
       <c r="D4" t="str">
-        <v>Ali Benani</v>
+        <v>Ali expresse</v>
       </c>
       <c r="E4" t="str">
-        <v>non</v>
+        <v>oui</v>
       </c>
       <c r="F4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>10000</v>
@@ -532,62 +532,103 @@
         <v>10000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L4" t="str">
         <v>--</v>
       </c>
       <c r="M4">
-        <v>8500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>001/LF/TEST DR</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>q666465</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Ali Benani</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>non</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I5">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="J5">
         <v>1500</v>
       </c>
       <c r="K5">
+        <v>1500</v>
+      </c>
+      <c r="L5" t="str">
+        <v>--</v>
+      </c>
+      <c r="M5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6">
+        <v>30000</v>
+      </c>
+      <c r="I6">
+        <v>60000</v>
+      </c>
+      <c r="J6">
+        <v>3000</v>
+      </c>
+      <c r="K6">
         <v>9000</v>
       </c>
-      <c r="L5">
-        <v>10000</v>
-      </c>
-      <c r="M5">
-        <v>69500</v>
+      <c r="L6">
+        <v>10000</v>
+      </c>
+      <c r="M6">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,13 +415,13 @@
         <v>Taxe/avance</v>
       </c>
       <c r="L1" t="str">
+        <v>MT brut (Rappel)</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Taxe (Rappel)</v>
+      </c>
+      <c r="N1" t="str">
         <v>Caution</v>
-      </c>
-      <c r="M1" t="str">
-        <v>MT brut (Rappel)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Taxe (Rappel)</v>
       </c>
       <c r="O1" t="str">
         <v>MT net</v>
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>332/AG FES1</v>
+        <v>800/PV FES 1</v>
       </c>
       <c r="B2" t="str">
         <v>Point de vente</v>
       </c>
       <c r="C2" t="str">
-        <v>LK354534</v>
+        <v>P5874857</v>
       </c>
       <c r="D2" t="str">
-        <v>MOURAD VAVA</v>
+        <v>KARIM JALAL</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -449,17 +449,17 @@
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>16000</v>
+      <c r="H2" t="str">
+        <v>--</v>
       </c>
       <c r="I2">
-        <v>48000</v>
-      </c>
-      <c r="J2">
-        <v>2400</v>
+        <v>40000</v>
+      </c>
+      <c r="J2" t="str">
+        <v>--</v>
       </c>
       <c r="K2">
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -467,63 +467,157 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="str">
-        <v>--</v>
+      <c r="N2">
+        <v>10000</v>
       </c>
       <c r="O2">
-        <v>13600</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v xml:space="preserve">044/LF/FES VILLE </v>
+      </c>
+      <c r="B3" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="C3" t="str">
+        <v>L3578354</v>
+      </c>
+      <c r="D3" t="str">
+        <v>NABIL KAMAL</v>
+      </c>
+      <c r="E3" t="str">
+        <v>non</v>
+      </c>
+      <c r="F3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1500</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="str">
+        <v>--</v>
+      </c>
+      <c r="O3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">044/FES VILLE </v>
+      </c>
+      <c r="B4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="C4" t="str">
+        <v>K5443645</v>
+      </c>
+      <c r="D4" t="str">
+        <v>KHADIJA LALA</v>
+      </c>
+      <c r="E4" t="str">
+        <v>non</v>
+      </c>
+      <c r="F4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
+        <v>--</v>
+      </c>
+      <c r="O4">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B3" t="str">
+      <c r="B5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" t="str">
+      <c r="C5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D3" t="str">
+      <c r="D5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" t="str">
+      <c r="E5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F3" t="str">
+      <c r="F5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G3" t="str">
+      <c r="G5" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H3">
-        <v>16000</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2400</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>13600</v>
+      <c r="H5">
+        <v>20000</v>
+      </c>
+      <c r="I5">
+        <v>40000</v>
+      </c>
+      <c r="J5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>6000</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>10000</v>
+      </c>
+      <c r="O5">
+        <v>61000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>800/PV FES 1</v>
+        <v>456/CASA</v>
       </c>
       <c r="B2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>P5874857</v>
+        <v>BK747A53</v>
       </c>
       <c r="D2" t="str">
-        <v>KARIM JALAL</v>
+        <v>ANAS MASTI</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -447,45 +447,45 @@
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
         <v>--</v>
       </c>
-      <c r="I2">
-        <v>40000</v>
-      </c>
-      <c r="J2" t="str">
-        <v>--</v>
-      </c>
-      <c r="K2">
-        <v>6000</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>10000</v>
-      </c>
       <c r="O2">
-        <v>44000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v>456/CASA</v>
       </c>
       <c r="B3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C3" t="str">
-        <v>L3578354</v>
+        <v>BG746583</v>
       </c>
       <c r="D3" t="str">
-        <v>NABIL KAMAL</v>
+        <v>TEST KAMAL</v>
       </c>
       <c r="E3" t="str">
         <v>non</v>
@@ -494,16 +494,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,21 +518,21 @@
         <v>--</v>
       </c>
       <c r="O3">
-        <v>8500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v>456/CASA</v>
       </c>
       <c r="B4" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="C4" t="str">
-        <v>K5443645</v>
+        <v>GT744635</v>
       </c>
       <c r="D4" t="str">
-        <v>KHADIJA LALA</v>
+        <v>JAMAL JAMAL</v>
       </c>
       <c r="E4" t="str">
         <v>non</v>
@@ -541,16 +541,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>--</v>
       </c>
       <c r="O4">
-        <v>8500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -591,28 +591,28 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H5">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="I5">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>3000</v>
-      </c>
-      <c r="K5">
-        <v>6000</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>10000</v>
-      </c>
-      <c r="O5">
-        <v>61000</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>456/CASA</v>
+        <v xml:space="preserve">901/FES </v>
       </c>
       <c r="B2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>BK747A53</v>
+        <v>J207703</v>
       </c>
       <c r="D2" t="str">
-        <v>ANAS MASTI</v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -447,16 +447,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,21 +471,21 @@
         <v>--</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>456/CASA</v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="B3" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="C3" t="str">
-        <v>BG746583</v>
+        <v>BJ36877</v>
       </c>
       <c r="D3" t="str">
-        <v>TEST KAMAL</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="E3" t="str">
         <v>non</v>
@@ -494,16 +494,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,39 +518,39 @@
         <v>--</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>456/CASA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>GT744635</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>JAMAL JAMAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>non</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>11000</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -561,63 +561,16 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="str">
-        <v>--</v>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5">
-        <v>3000</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>3000</v>
+        <v>9900</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
   </ignoredErrors>
 </worksheet>
 </file>